--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>835969.2299100185</v>
+        <v>855995.289134631</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.13461325</v>
+        <v>2820057.50789716</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6925228.115198574</v>
+        <v>7424767.084573256</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -671,13 +673,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>65.3360941367004</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>97.48065975828754</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429398</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>146.3034971231918</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -899,22 +901,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>218.5024816615214</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>153.4880127104434</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1054,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>96.44420510686378</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>123.0673923170405</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1142,7 +1144,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>95.50773843114665</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>144.0985297928092</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1293,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>102.1026425880268</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1306,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1382,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>148.943627773123</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>35.58817613044457</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1530,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>123.0673923170405</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>238.66195232336</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1622,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>141.0753921893335</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429418</v>
+        <v>51.585437404294</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.649880648615</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>165.2169067524129</v>
+        <v>121.8235736002275</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2239,22 +2241,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>123.0673923170405</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028899</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2476,19 +2478,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>47.37384610069584</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.6277241346148</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>98.15366458399308</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>250.6734045084265</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2968,7 +2970,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>23.04621311339642</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>213.8764542074655</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>125.4203831793925</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.9095796790285</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>124.4294523839912</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>11.12043047005107</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3740,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>135.1170924112295</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>188.2408954753665</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>125.4203831793925</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>93.00023373564825</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3983,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>153.3573077796844</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>190.8983713221378</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399251</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1367.347341177754</v>
+        <v>2137.056663016763</v>
       </c>
       <c r="C2" t="n">
-        <v>940.446611191054</v>
+        <v>1710.155933030063</v>
       </c>
       <c r="D2" t="n">
-        <v>940.446611191054</v>
+        <v>1286.863312215064</v>
       </c>
       <c r="E2" t="n">
-        <v>514.4696713389116</v>
+        <v>860.8863723629212</v>
       </c>
       <c r="F2" t="n">
-        <v>89.34548952831176</v>
+        <v>435.7621905523214</v>
       </c>
       <c r="G2" t="n">
-        <v>89.34548952831176</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H2" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K2" t="n">
-        <v>728.2502693850971</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L2" t="n">
-        <v>728.2502693850971</v>
+        <v>1677.140812435723</v>
       </c>
       <c r="M2" t="n">
-        <v>918.7421318583365</v>
+        <v>2041.463937832282</v>
       </c>
       <c r="N2" t="n">
-        <v>1592.543782971651</v>
+        <v>2041.463937832282</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.543782971651</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="P2" t="n">
-        <v>2266.345434084965</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2623.965600701989</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>2403.040029746622</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U2" t="n">
-        <v>2144.685120343034</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="V2" t="n">
-        <v>1787.195705469284</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="W2" t="n">
-        <v>1787.195705469284</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="X2" t="n">
-        <v>1787.195705469284</v>
+        <v>2962.242297353403</v>
       </c>
       <c r="Y2" t="n">
-        <v>1787.195705469284</v>
+        <v>2556.905027308293</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1480.866774040094</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>1363.360870557599</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>1259.520912072884</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>1154.818978345821</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>1061.173148028725</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>967.1193762463289</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>1185.44077228823</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K3" t="n">
-        <v>1775.925698856569</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="L3" t="n">
-        <v>1775.925698856569</v>
+        <v>1180.394054705318</v>
       </c>
       <c r="M3" t="n">
-        <v>1966.609952391131</v>
+        <v>1180.394054705318</v>
       </c>
       <c r="N3" t="n">
-        <v>1966.609952391131</v>
+        <v>1180.394054705318</v>
       </c>
       <c r="O3" t="n">
-        <v>1966.609952391131</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P3" t="n">
-        <v>2640.411603504445</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q3" t="n">
-        <v>2640.411603504445</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R3" t="n">
-        <v>2722.430913589148</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>2641.106666150403</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>2499.226730448081</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>2314.458534367718</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>2109.485395506984</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1912.964018340201</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>1749.486672106864</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>1609.793783460156</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1625.199008700256</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C4" t="n">
-        <v>1453.226445579172</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="D4" t="n">
-        <v>1289.909672705943</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="E4" t="n">
-        <v>1123.701466858797</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="F4" t="n">
-        <v>951.8396926333571</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="G4" t="n">
-        <v>785.5827229275893</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="H4" t="n">
-        <v>641.7864544357437</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>2675.392300276321</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S4" t="n">
-        <v>2675.392300276321</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T4" t="n">
-        <v>2432.052952502221</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U4" t="n">
-        <v>2432.052952502221</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V4" t="n">
-        <v>2432.052952502221</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W4" t="n">
-        <v>2284.271642276775</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X4" t="n">
-        <v>2041.70774572258</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y4" t="n">
-        <v>1815.364977412322</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1128.035865546505</v>
+        <v>2510.296542000307</v>
       </c>
       <c r="C5" t="n">
-        <v>701.1351355598056</v>
+        <v>2083.395812013608</v>
       </c>
       <c r="D5" t="n">
-        <v>701.1351355598056</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="E5" t="n">
-        <v>275.1581957076631</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F5" t="n">
-        <v>54.44861827178296</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K5" t="n">
-        <v>417.0520770886785</v>
+        <v>514.1882432512207</v>
       </c>
       <c r="L5" t="n">
-        <v>801.1857969764337</v>
+        <v>514.1882432512207</v>
       </c>
       <c r="M5" t="n">
-        <v>1474.987448089748</v>
+        <v>1403.922990368624</v>
       </c>
       <c r="N5" t="n">
-        <v>2148.789099203062</v>
+        <v>2293.657737486027</v>
       </c>
       <c r="O5" t="n">
-        <v>2148.789099203062</v>
+        <v>3138.802387636839</v>
       </c>
       <c r="P5" t="n">
-        <v>2148.789099203062</v>
+        <v>3138.802387636839</v>
       </c>
       <c r="Q5" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V5" t="n">
-        <v>2364.941498715398</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="W5" t="n">
-        <v>2364.941498715398</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="X5" t="n">
-        <v>1953.221499883145</v>
+        <v>3335.482176336947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1547.884229838035</v>
+        <v>2930.144906291837</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L6" t="n">
-        <v>728.2502693850971</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M6" t="n">
-        <v>728.2502693850971</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N6" t="n">
-        <v>1189.334597738979</v>
+        <v>444.9393229643761</v>
       </c>
       <c r="O6" t="n">
-        <v>1863.136248852293</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.5276838214469</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C7" t="n">
-        <v>278.5276838214469</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="D7" t="n">
-        <v>278.5276838214469</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E7" t="n">
-        <v>278.5276838214469</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F7" t="n">
-        <v>278.5276838214469</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G7" t="n">
-        <v>278.5276838214469</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T7" t="n">
-        <v>1774.348637117119</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.164188617424</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V7" t="n">
-        <v>1212.452721225452</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W7" t="n">
-        <v>937.6003173979655</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X7" t="n">
-        <v>695.0364208437705</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y7" t="n">
-        <v>468.6936525335126</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.957971336176</v>
+        <v>2212.428163474342</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.057241349476</v>
+        <v>1785.527433487643</v>
       </c>
       <c r="D8" t="n">
-        <v>884.7646205344768</v>
+        <v>1362.234812672643</v>
       </c>
       <c r="E8" t="n">
-        <v>458.7876806823343</v>
+        <v>936.2578728205004</v>
       </c>
       <c r="F8" t="n">
-        <v>458.7876806823343</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G8" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>127.3841458631196</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L8" t="n">
-        <v>127.3841458631196</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="M8" t="n">
-        <v>127.3841458631196</v>
+        <v>1677.140812435723</v>
       </c>
       <c r="N8" t="n">
-        <v>801.1857969764337</v>
+        <v>1677.140812435723</v>
       </c>
       <c r="O8" t="n">
-        <v>1474.987448089748</v>
+        <v>2522.285462586535</v>
       </c>
       <c r="P8" t="n">
-        <v>2148.789099203062</v>
+        <v>3230.564741744462</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>2625.958450527384</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T8" t="n">
-        <v>2405.032879572017</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U8" t="n">
-        <v>2146.677970168429</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V8" t="n">
-        <v>2146.677970168429</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W8" t="n">
-        <v>2146.677970168429</v>
+        <v>3449.333796643235</v>
       </c>
       <c r="X8" t="n">
-        <v>1734.957971336176</v>
+        <v>3037.613797810982</v>
       </c>
       <c r="Y8" t="n">
-        <v>1734.957971336176</v>
+        <v>2632.276527765873</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L9" t="n">
-        <v>54.44861827178296</v>
+        <v>274.9063928733606</v>
       </c>
       <c r="M9" t="n">
-        <v>54.44861827178296</v>
+        <v>274.9063928733606</v>
       </c>
       <c r="N9" t="n">
-        <v>728.2502693850971</v>
+        <v>274.9063928733606</v>
       </c>
       <c r="O9" t="n">
-        <v>1402.051920498411</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1137.62974079602</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C10" t="n">
-        <v>965.6571776749358</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="D10" t="n">
-        <v>802.3404048017065</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="E10" t="n">
-        <v>636.1321989545601</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="F10" t="n">
-        <v>464.2704247291205</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T10" t="n">
-        <v>2234.861645684911</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U10" t="n">
-        <v>2234.861645684911</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V10" t="n">
-        <v>2071.554778200025</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W10" t="n">
-        <v>1796.702374372538</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X10" t="n">
-        <v>1554.138477818344</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y10" t="n">
-        <v>1327.795709508086</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1906.191199597965</v>
+        <v>2475.399670743779</v>
       </c>
       <c r="C11" t="n">
-        <v>1479.290469611265</v>
+        <v>2048.498940757079</v>
       </c>
       <c r="D11" t="n">
-        <v>1055.997848796266</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="E11" t="n">
-        <v>630.0209089441231</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F11" t="n">
-        <v>204.8967271335233</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G11" t="n">
-        <v>204.8967271335233</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K11" t="n">
-        <v>728.2502693850971</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L11" t="n">
-        <v>1402.051920498411</v>
+        <v>852.7173878735007</v>
       </c>
       <c r="M11" t="n">
-        <v>1402.051920498411</v>
+        <v>1742.452134990903</v>
       </c>
       <c r="N11" t="n">
-        <v>2075.853571611725</v>
+        <v>2632.186882108306</v>
       </c>
       <c r="O11" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3336.532957737433</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>3336.532957737433</v>
       </c>
       <c r="W11" t="n">
-        <v>2326.039563889495</v>
+        <v>3336.532957737433</v>
       </c>
       <c r="X11" t="n">
-        <v>2326.039563889495</v>
+        <v>3300.585305080418</v>
       </c>
       <c r="Y11" t="n">
-        <v>2326.039563889495</v>
+        <v>2895.248035035309</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L12" t="n">
-        <v>515.5329466256644</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.334597738979</v>
+        <v>961.6325044602232</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.136248852293</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>278.5276838214469</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C13" t="n">
-        <v>278.5276838214469</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D13" t="n">
-        <v>278.5276838214469</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E13" t="n">
-        <v>278.5276838214469</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F13" t="n">
-        <v>278.5276838214469</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G13" t="n">
-        <v>278.5276838214469</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2160.082153146776</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="C14" t="n">
-        <v>1733.181423160076</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="D14" t="n">
-        <v>1309.888802345077</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="E14" t="n">
-        <v>883.9118624929341</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F14" t="n">
-        <v>458.7876806823343</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>728.2502693850971</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M14" t="n">
-        <v>1402.051920498411</v>
+        <v>1923.907602950379</v>
       </c>
       <c r="N14" t="n">
-        <v>2048.629262475834</v>
+        <v>1923.907602950379</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>2769.052253101191</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W14" t="n">
-        <v>2722.430913589148</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X14" t="n">
-        <v>2722.430913589148</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y14" t="n">
-        <v>2579.930517438306</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K15" t="n">
-        <v>515.5329466256644</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L15" t="n">
-        <v>1189.334597738979</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="M15" t="n">
-        <v>1863.136248852293</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.136248852293</v>
+        <v>961.6325044602232</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1851.113782471695</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>278.5276838214469</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C16" t="n">
-        <v>106.5551207003629</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="D16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="E16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="F16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X16" t="n">
-        <v>695.0364208437705</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.6936525335126</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5555,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5595,19 +5597,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.79262694784</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>842.3270571327721</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="C19" t="n">
-        <v>842.3270571327721</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="D19" t="n">
-        <v>679.0102842595428</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="E19" t="n">
-        <v>679.0102842595428</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5713,10 +5715,10 @@
         <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1032.493025844838</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1032.493025844838</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5750,31 +5752,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>1125.089101572744</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5838,7 +5840,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554925</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C22" t="n">
-        <v>326.3817789554925</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D22" t="n">
-        <v>326.3817789554925</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E22" t="n">
-        <v>326.3817789554925</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F22" t="n">
-        <v>326.3817789554925</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G22" t="n">
-        <v>326.3817789554925</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>4871.796322517326</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>4871.796322517326</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>4871.796322517326</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6072,19 +6074,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>512.1245198631661</v>
+        <v>1067.07923602298</v>
       </c>
       <c r="C25" t="n">
-        <v>512.1245198631661</v>
+        <v>895.1066729018962</v>
       </c>
       <c r="D25" t="n">
-        <v>512.1245198631661</v>
+        <v>731.7899000286669</v>
       </c>
       <c r="E25" t="n">
-        <v>512.1245198631661</v>
+        <v>565.5816941815204</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>393.7199199560808</v>
       </c>
       <c r="G25" t="n">
         <v>345.8675501573982</v>
@@ -6145,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>1712.153331232334</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.441863840363</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W25" t="n">
-        <v>1155.589460012876</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X25" t="n">
-        <v>913.0255634586812</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y25" t="n">
-        <v>702.2904885752318</v>
+        <v>1257.245204735046</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6233,28 +6235,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6312,7 +6314,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3205.84032174079</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C28" t="n">
-        <v>3033.867758619706</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D28" t="n">
-        <v>2934.722642878299</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E28" t="n">
-        <v>2934.722642878299</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036462</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U28" t="n">
-        <v>4421.476826536767</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V28" t="n">
-        <v>4139.765359144795</v>
+        <v>1953.965660114159</v>
       </c>
       <c r="W28" t="n">
-        <v>3864.912955317308</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X28" t="n">
-        <v>3622.349058763114</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y28" t="n">
-        <v>3396.006290452855</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6464,34 +6466,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I30" t="n">
-        <v>3313.894682672831</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J30" t="n">
-        <v>3585.592171952422</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K30" t="n">
-        <v>4176.077098520761</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L30" t="n">
-        <v>4176.077098520761</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M30" t="n">
-        <v>4176.077098520761</v>
+        <v>4362.434577686963</v>
       </c>
       <c r="N30" t="n">
-        <v>4176.077098520761</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O30" t="n">
-        <v>4176.077098520761</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P30" t="n">
-        <v>4650.990193428648</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4017.903765402536</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C31" t="n">
-        <v>3845.931202281452</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D31" t="n">
-        <v>3682.614429408222</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E31" t="n">
-        <v>3516.406223561076</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.544449335636</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>5044.818053833756</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T31" t="n">
-        <v>5044.818053833756</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U31" t="n">
-        <v>4764.63360533406</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V31" t="n">
-        <v>4482.922137942089</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W31" t="n">
-        <v>4208.069734114601</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X31" t="n">
-        <v>4208.069734114601</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y31" t="n">
-        <v>4208.069734114601</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6701,34 +6703,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C33" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D33" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E33" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F33" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G33" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L33" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M33" t="n">
-        <v>1748.774177950213</v>
+        <v>4362.434577686963</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.774177950213</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S33" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T33" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U33" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V33" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W33" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X33" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y33" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>517.7293243828378</v>
+        <v>3901.026184387725</v>
       </c>
       <c r="C34" t="n">
-        <v>517.7293243828378</v>
+        <v>3729.053621266641</v>
       </c>
       <c r="D34" t="n">
-        <v>517.7293243828378</v>
+        <v>3565.736848393412</v>
       </c>
       <c r="E34" t="n">
-        <v>517.7293243828378</v>
+        <v>3399.528642546265</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>3227.666868320826</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>3061.409898615058</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>4560.098817964244</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>4317.534921410049</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.7293243828378</v>
+        <v>4091.192153099791</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7014,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>201.4478291472353</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>201.4478291472353</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>201.4478291472353</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,19 +7162,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7181,28 +7183,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K39" t="n">
-        <v>3562.139145170023</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L39" t="n">
-        <v>4398.937953252929</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M39" t="n">
-        <v>4398.937953252929</v>
+        <v>4362.434577686963</v>
       </c>
       <c r="N39" t="n">
-        <v>4398.937953252929</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O39" t="n">
-        <v>4398.937953252929</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.6620294727279</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>603.6894663516439</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7360,22 +7362,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2271.4829827684</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1991.298534268705</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.587066876733</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.734663049246</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.170766495052</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.8279981847936</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>756.6560592082994</v>
+        <v>1661.879739374708</v>
       </c>
       <c r="C41" t="n">
-        <v>756.6560592082994</v>
+        <v>1234.979009388008</v>
       </c>
       <c r="D41" t="n">
-        <v>756.6560592082994</v>
+        <v>1234.979009388008</v>
       </c>
       <c r="E41" t="n">
-        <v>756.6560592082994</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F41" t="n">
-        <v>756.6560592082994</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G41" t="n">
-        <v>352.3169967977481</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J41" t="n">
-        <v>417.0520770886785</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="K41" t="n">
-        <v>417.0520770886785</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>417.0520770886785</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M41" t="n">
-        <v>417.0520770886785</v>
+        <v>1585.378458328098</v>
       </c>
       <c r="N41" t="n">
-        <v>1090.853728201993</v>
+        <v>1585.378458328098</v>
       </c>
       <c r="O41" t="n">
-        <v>1474.987448089748</v>
+        <v>2430.52310847891</v>
       </c>
       <c r="P41" t="n">
-        <v>2148.789099203062</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T41" t="n">
-        <v>2585.949002062654</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U41" t="n">
-        <v>2327.594092659066</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V41" t="n">
-        <v>1970.104677785315</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W41" t="n">
-        <v>1573.713328085662</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X41" t="n">
-        <v>1161.993329253409</v>
+        <v>2067.217009419818</v>
       </c>
       <c r="Y41" t="n">
-        <v>756.6560592082994</v>
+        <v>1661.879739374708</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J42" t="n">
-        <v>134.7041943078597</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K42" t="n">
-        <v>725.1891208761992</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L42" t="n">
-        <v>725.1891208761992</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M42" t="n">
-        <v>725.1891208761992</v>
+        <v>662.38268391116</v>
       </c>
       <c r="N42" t="n">
-        <v>725.1891208761992</v>
+        <v>662.38268391116</v>
       </c>
       <c r="O42" t="n">
-        <v>725.1891208761992</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P42" t="n">
-        <v>1398.990771989513</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>894.0649040444501</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C43" t="n">
-        <v>722.0923409233661</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D43" t="n">
-        <v>558.7755680501368</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E43" t="n">
-        <v>392.5673622029904</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F43" t="n">
-        <v>220.7055879775508</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G43" t="n">
-        <v>54.44861827178296</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>1961.932823669022</v>
       </c>
       <c r="U43" t="n">
-        <v>1954.677197185216</v>
+        <v>1681.748375169326</v>
       </c>
       <c r="V43" t="n">
-        <v>1827.989941448456</v>
+        <v>1681.748375169326</v>
       </c>
       <c r="W43" t="n">
-        <v>1553.137537620968</v>
+        <v>1681.748375169326</v>
       </c>
       <c r="X43" t="n">
-        <v>1310.573641066774</v>
+        <v>1439.184478615131</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.230872756516</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1485.525280420256</v>
+        <v>1659.195420337565</v>
       </c>
       <c r="C44" t="n">
-        <v>1058.624550433556</v>
+        <v>1232.294690350865</v>
       </c>
       <c r="D44" t="n">
-        <v>635.3319296185562</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="E44" t="n">
-        <v>209.3549897664137</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K44" t="n">
-        <v>1090.853728201993</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L44" t="n">
-        <v>1090.853728201993</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M44" t="n">
-        <v>1592.543782971651</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N44" t="n">
-        <v>1592.543782971651</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="O44" t="n">
-        <v>1592.543782971651</v>
+        <v>2522.285462586534</v>
       </c>
       <c r="P44" t="n">
-        <v>2266.345434084965</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.430913589148</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W44" t="n">
-        <v>2722.430913589148</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X44" t="n">
-        <v>2310.710914756895</v>
+        <v>2064.532690382675</v>
       </c>
       <c r="Y44" t="n">
-        <v>1905.373644711786</v>
+        <v>1659.195420337565</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1480.866774040094</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C45" t="n">
-        <v>1363.360870557599</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D45" t="n">
-        <v>1259.520912072884</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E45" t="n">
-        <v>1154.818978345821</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>1061.173148028725</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G45" t="n">
-        <v>967.1193762463289</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H45" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I45" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J45" t="n">
-        <v>913.7432830086385</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K45" t="n">
-        <v>1504.228209576978</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L45" t="n">
-        <v>1504.228209576978</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="M45" t="n">
-        <v>1504.228209576978</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="N45" t="n">
-        <v>1504.228209576978</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O45" t="n">
-        <v>1584.483785613055</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P45" t="n">
-        <v>2258.285436726369</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q45" t="n">
-        <v>2722.430913589148</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R45" t="n">
-        <v>2722.430913589148</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>2641.106666150403</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>2499.226730448081</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>2314.458534367718</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>2109.485395506984</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1912.964018340201</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>1749.486672106864</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y45" t="n">
-        <v>1609.793783460156</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>171.042873084227</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>171.042873084227</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>171.042873084227</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.861645684911</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U46" t="n">
-        <v>2234.861645684911</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.554778200025</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W46" t="n">
-        <v>1796.702374372538</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.138477818344</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.795709508086</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178784</v>
       </c>
       <c r="M2" t="n">
-        <v>229.8472855996736</v>
+        <v>405.4344198656536</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8058,22 +8060,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M3" t="n">
-        <v>215.7071376179455</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>647.5880747053632</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>482.522667368951</v>
       </c>
       <c r="L5" t="n">
-        <v>426.325900905103</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846873</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197016</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8237,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>487.0847740255431</v>
+        <v>398.1526904575372</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>109.4368508870685</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846873</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>404.1278315708199</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,19 +8537,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>227.574314522856</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P9" t="n">
-        <v>487.5125870168303</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8690,19 +8692,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>827.0187399383605</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O11" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8711,7 +8713,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,16 +8774,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975833</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>920.0649949987969</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>819.1464940258595</v>
       </c>
       <c r="N14" t="n">
-        <v>690.388049074267</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1409796453348</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>920.0649949987969</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>51.54013964082409</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9164,10 +9166,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125397</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9245,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>529.5908311320803</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>229.9501690078907</v>
+        <v>705.1634862205219</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9422,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9720,22 +9722,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330639</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10112,13 +10114,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330639</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10130,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>501.4810380814824</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10349,10 +10351,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10428,7 +10430,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10437,10 +10439,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O33" t="n">
-        <v>187.0266028900253</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10586,13 +10588,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>660.954139937714</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>397.6042905607436</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,22 +10904,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>280.6730777314183</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11060,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>477.1978630942631</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>425.4048178285041</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>101.6773527536128</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
@@ -11151,13 +11153,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P42" t="n">
-        <v>702.3785696021157</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M44" t="n">
-        <v>544.1888939798944</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>718.1830902075183</v>
+        <v>660.3197305479116</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11373,13 +11375,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>255.148922768857</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11388,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>104.2381281425017</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>702.3785696021157</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22550,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>334.9595776497454</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>5.84296142730345</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>47.1854451728328</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,19 +22755,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>125.8003826660203</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22787,22 +22789,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>202.3704583309724</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22841,13 +22843,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>254.1147861334868</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22942,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>65.23940003763322</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>19.29091348988661</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23030,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>7.815882754444345</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>248.3289064098474</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23179,13 +23181,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>68.15019490184636</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23194,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23230,13 +23232,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>145.9460669675826</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23312,19 +23314,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>372.0146227134857</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>19.29091348988661</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>176.9879283252548</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>260.2085051553251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402028</v>
+        <v>110.098167740203</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>4.926249730772298</v>
+        <v>48.31958288295769</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>19.29091348988663</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>79.2321554863222</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.45161649254055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>63.52994056050392</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>21.43047528078557</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>145.3874838926601</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>65.01789851058589</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>16.93792262753465</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.169760948126907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25362,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>115.7088052046617</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>229.7855238263079</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25628,13 +25630,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>83.59922283458363</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>219.3619033685637</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>153.4739695386589</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>131.0791068915071</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>267.5156322128093</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>216.7044275217924</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>71.98949189919267</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481504.3300677586</v>
+        <v>567513.9292571727</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481504.3300677586</v>
+        <v>567513.9292571727</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481504.3300677585</v>
+        <v>567513.9292571726</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481504.3300677586</v>
+        <v>567513.9292571725</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481504.3300677585</v>
+        <v>567513.9292571726</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>717384.823958889</v>
+        <v>717384.8239588889</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>717384.823958889</v>
+        <v>717384.8239588891</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>717384.8239588891</v>
+        <v>717384.823958889</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>717384.8239588889</v>
+        <v>717384.8239588891</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>717384.823958889</v>
+        <v>717384.8239588891</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>717384.8239588891</v>
+        <v>717384.823958889</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481504.3300677585</v>
+        <v>567513.9292571725</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481504.3300677586</v>
+        <v>567513.9292571726</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785648</v>
       </c>
       <c r="C2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785648</v>
       </c>
       <c r="D2" t="n">
-        <v>207485.7353817733</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="E2" t="n">
-        <v>207485.7353817733</v>
+        <v>244543.6550785646</v>
       </c>
       <c r="F2" t="n">
-        <v>207485.7353817733</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="G2" t="n">
-        <v>309116.7217255959</v>
+        <v>309116.721725596</v>
       </c>
       <c r="H2" t="n">
-        <v>309116.7217255959</v>
+        <v>309116.721725596</v>
       </c>
       <c r="I2" t="n">
-        <v>309116.7217255959</v>
+        <v>309116.721725596</v>
       </c>
       <c r="J2" t="n">
-        <v>309116.7217255959</v>
+        <v>309116.7217255961</v>
       </c>
       <c r="K2" t="n">
         <v>309116.7217255961</v>
       </c>
       <c r="L2" t="n">
+        <v>309116.7217255961</v>
+      </c>
+      <c r="M2" t="n">
         <v>309116.7217255959</v>
-      </c>
-      <c r="M2" t="n">
-        <v>309116.7217255958</v>
       </c>
       <c r="N2" t="n">
         <v>309116.721725596</v>
       </c>
       <c r="O2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785648</v>
       </c>
       <c r="P2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785647</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749752</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775614</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29325.43720283132</v>
+        <v>34584.51254171981</v>
       </c>
       <c r="C4" t="n">
-        <v>29325.43720283133</v>
+        <v>34584.51254171981</v>
       </c>
       <c r="D4" t="n">
-        <v>29325.43720283132</v>
+        <v>34584.51254171981</v>
       </c>
       <c r="E4" t="n">
-        <v>29325.43720283132</v>
+        <v>34584.51254171981</v>
       </c>
       <c r="F4" t="n">
-        <v>29325.43720283132</v>
+        <v>34584.51254171981</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389558</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
@@ -26454,10 +26456,10 @@
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>29325.43720283133</v>
+        <v>34584.51254171981</v>
       </c>
       <c r="P4" t="n">
-        <v>29325.43720283132</v>
+        <v>34584.51254171981</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124935.5554712969</v>
+        <v>-179493.1547186737</v>
       </c>
       <c r="C6" t="n">
-        <v>103151.748292387</v>
+        <v>121689.2469563014</v>
       </c>
       <c r="D6" t="n">
-        <v>103151.748292387</v>
+        <v>121689.2469563014</v>
       </c>
       <c r="E6" t="n">
-        <v>136779.3482923869</v>
+        <v>155316.8469563013</v>
       </c>
       <c r="F6" t="n">
-        <v>136779.3482923869</v>
+        <v>155316.8469563014</v>
       </c>
       <c r="G6" t="n">
-        <v>23667.13827308457</v>
+        <v>83448.97930165107</v>
       </c>
       <c r="H6" t="n">
-        <v>187618.2590832706</v>
+        <v>187618.2590832708</v>
       </c>
       <c r="I6" t="n">
-        <v>187618.2590832707</v>
+        <v>187618.2590832708</v>
       </c>
       <c r="J6" t="n">
-        <v>9541.33059449085</v>
+        <v>-47526.95119429057</v>
       </c>
       <c r="K6" t="n">
         <v>187618.2590832709</v>
       </c>
       <c r="L6" t="n">
-        <v>187618.2590832707</v>
+        <v>187618.2590832708</v>
       </c>
       <c r="M6" t="n">
         <v>187618.2590832706</v>
       </c>
       <c r="N6" t="n">
-        <v>187618.2590832707</v>
+        <v>187618.2590832708</v>
       </c>
       <c r="O6" t="n">
-        <v>136779.348292387</v>
+        <v>155316.8469563015</v>
       </c>
       <c r="P6" t="n">
-        <v>136779.348292387</v>
+        <v>155316.8469563014</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876013</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876013</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="M2" t="n">
-        <v>192.4160227002418</v>
+        <v>368.0031569662218</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M3" t="n">
-        <v>192.6103571056175</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>624.416184983141</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>446.7580665741417</v>
       </c>
       <c r="L5" t="n">
-        <v>388.0138584724801</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34957,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>465.7417458120015</v>
+        <v>376.8096622439955</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>73.67225009225919</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>368.0031569662218</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P9" t="n">
-        <v>465.7417458120016</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>788.7066975057376</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O11" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>781.7152311264277</v>
       </c>
       <c r="N14" t="n">
-        <v>653.1084262398209</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>29.76929843599542</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>191.6381265752678</v>
+        <v>666.851443787899</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36142,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>267.0533324336321</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>267.0533324336321</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36850,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>479.7101968766537</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,10 +37159,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O33" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382822</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>361.4796159561455</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>258.273843898085</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>439.7666001948313</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>388.01385847248</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>81.0662384202795</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
@@ -37871,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P42" t="n">
-        <v>680.607728397287</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M44" t="n">
-        <v>506.7576310804626</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>680.607728397287</v>
+        <v>622.7443687376804</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>81.06623842027952</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>680.607728397287</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>855995.289134631</v>
+        <v>854077.5714760683</v>
       </c>
     </row>
     <row r="7">
@@ -673,7 +673,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>65.3360941367004</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>72.64322119418399</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>167.8164790129221</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>51.58543740429398</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -910,7 +910,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>153.4880127104434</v>
+        <v>208.7256249138777</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>96.44420510686378</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1138,19 +1138,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>120.1866340524928</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>144.0985297928092</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>116.2748171257523</v>
       </c>
       <c r="C10" t="n">
-        <v>102.1026425880268</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>110.0756939161054</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>35.58817613044457</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>238.66195232336</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1669,10 +1669,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>376.8590219325843</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1770,13 +1770,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.585437404294</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.649880648615</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>121.8235736002275</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>192.8717243028899</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>47.37384610069584</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>250.6734045084265</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2955,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>213.8764542074655</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3192,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>125.4203831793925</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>124.4294523839912</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>187.5028934787748</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>188.2408954753665</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,16 +3957,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.00023373564825</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X44" t="n">
-        <v>190.8983713221378</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>98.15366458399251</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2137.056663016763</v>
+        <v>2475.399670743779</v>
       </c>
       <c r="C2" t="n">
-        <v>1710.155933030063</v>
+        <v>2048.498940757079</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.863312215064</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="E2" t="n">
-        <v>860.8863723629212</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7621905523214</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G2" t="n">
         <v>369.7661358687856</v>
@@ -4336,16 +4336,16 @@
         <v>787.4060653183195</v>
       </c>
       <c r="L2" t="n">
-        <v>1677.140812435723</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M2" t="n">
-        <v>2041.463937832282</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="N2" t="n">
-        <v>2041.463937832282</v>
+        <v>3456.610306670528</v>
       </c>
       <c r="O2" t="n">
-        <v>2886.608587983094</v>
+        <v>3456.610306670528</v>
       </c>
       <c r="P2" t="n">
         <v>3594.887867141022</v>
@@ -4372,10 +4372,10 @@
         <v>3373.962296185655</v>
       </c>
       <c r="X2" t="n">
-        <v>2962.242297353403</v>
+        <v>3300.585305080418</v>
       </c>
       <c r="Y2" t="n">
-        <v>2556.905027308293</v>
+        <v>2895.248035035309</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J3" t="n">
-        <v>343.5952466224115</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K3" t="n">
-        <v>343.5952466224115</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L3" t="n">
-        <v>1180.394054705318</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="M3" t="n">
-        <v>1180.394054705318</v>
+        <v>101.3693627944557</v>
       </c>
       <c r="N3" t="n">
-        <v>1180.394054705318</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O3" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P3" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q3" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
         <v>1880.58538792333</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.9768228924842</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C4" t="n">
-        <v>124.0042597714002</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="D4" t="n">
-        <v>124.0042597714002</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="E4" t="n">
-        <v>124.0042597714002</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="F4" t="n">
-        <v>124.0042597714002</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="G4" t="n">
-        <v>124.0042597714002</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="H4" t="n">
-        <v>124.0042597714002</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I4" t="n">
         <v>71.89775734282044</v>
@@ -4512,28 +4512,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>2035.137123962257</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T4" t="n">
-        <v>1791.797776188157</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U4" t="n">
-        <v>1511.613327688461</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V4" t="n">
-        <v>1229.90186029649</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W4" t="n">
-        <v>955.0494564690027</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X4" t="n">
-        <v>712.4855599148078</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y4" t="n">
-        <v>486.1427916045499</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2510.296542000307</v>
+        <v>2105.957479589756</v>
       </c>
       <c r="C5" t="n">
-        <v>2083.395812013608</v>
+        <v>1679.056749603056</v>
       </c>
       <c r="D5" t="n">
-        <v>1660.103191198608</v>
+        <v>1255.764128788056</v>
       </c>
       <c r="E5" t="n">
-        <v>1234.126251346466</v>
+        <v>829.7871889359142</v>
       </c>
       <c r="F5" t="n">
-        <v>809.0020695358658</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="G5" t="n">
         <v>404.6630071253144</v>
@@ -4570,25 +4570,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="K5" t="n">
-        <v>514.1882432512207</v>
+        <v>578.0873763287929</v>
       </c>
       <c r="L5" t="n">
-        <v>514.1882432512207</v>
+        <v>578.0873763287929</v>
       </c>
       <c r="M5" t="n">
-        <v>1403.922990368624</v>
+        <v>578.0873763287929</v>
       </c>
       <c r="N5" t="n">
-        <v>2293.657737486027</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O5" t="n">
-        <v>3138.802387636839</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P5" t="n">
-        <v>3138.802387636839</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q5" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R5" t="n">
         <v>3594.887867141022</v>
@@ -4603,16 +4603,16 @@
         <v>3490.520573014162</v>
       </c>
       <c r="V5" t="n">
-        <v>3490.520573014162</v>
+        <v>3133.031158140411</v>
       </c>
       <c r="W5" t="n">
-        <v>3490.520573014162</v>
+        <v>2736.639808440758</v>
       </c>
       <c r="X5" t="n">
-        <v>3335.482176336947</v>
+        <v>2525.805843881286</v>
       </c>
       <c r="Y5" t="n">
-        <v>2930.144906291837</v>
+        <v>2525.805843881286</v>
       </c>
     </row>
     <row r="6">
@@ -4658,16 +4658,16 @@
         <v>71.89775734282044</v>
       </c>
       <c r="N6" t="n">
-        <v>444.9393229643761</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="O6" t="n">
-        <v>1334.420600975848</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="P6" t="n">
-        <v>1334.420600975848</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q6" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
         <v>1880.58538792333</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.1504836861761</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C7" t="n">
-        <v>341.1779205650921</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D7" t="n">
         <v>243.75953156826</v>
@@ -4752,25 +4752,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T7" t="n">
-        <v>2008.971436981848</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U7" t="n">
-        <v>1728.786988482153</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V7" t="n">
-        <v>1447.075521090182</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W7" t="n">
-        <v>1172.223117262695</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X7" t="n">
-        <v>929.6592207084997</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y7" t="n">
-        <v>703.3164523982417</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2212.428163474342</v>
+        <v>1783.280379831772</v>
       </c>
       <c r="C8" t="n">
-        <v>1785.527433487643</v>
+        <v>1356.379649845072</v>
       </c>
       <c r="D8" t="n">
-        <v>1362.234812672643</v>
+        <v>1234.979009388008</v>
       </c>
       <c r="E8" t="n">
-        <v>936.2578728205004</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F8" t="n">
-        <v>511.1336910099006</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G8" t="n">
-        <v>106.7946285993492</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H8" t="n">
         <v>106.7946285993492</v>
@@ -4810,13 +4810,13 @@
         <v>787.4060653183195</v>
       </c>
       <c r="L8" t="n">
-        <v>787.4060653183195</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M8" t="n">
-        <v>1677.140812435723</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N8" t="n">
-        <v>1677.140812435723</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="O8" t="n">
         <v>2522.285462586535</v>
@@ -4831,25 +4831,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T8" t="n">
-        <v>3594.887867141022</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U8" t="n">
-        <v>3594.887867141022</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V8" t="n">
-        <v>3594.887867141022</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="W8" t="n">
-        <v>3449.333796643235</v>
+        <v>2614.848742955554</v>
       </c>
       <c r="X8" t="n">
-        <v>3037.613797810982</v>
+        <v>2203.128744123302</v>
       </c>
       <c r="Y8" t="n">
-        <v>2632.276527765873</v>
+        <v>2203.128744123302</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K9" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L9" t="n">
-        <v>274.9063928733606</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="M9" t="n">
-        <v>274.9063928733606</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="N9" t="n">
         <v>274.9063928733606</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.1504836861761</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C10" t="n">
-        <v>410.0165012740279</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D10" t="n">
-        <v>410.0165012740279</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E10" t="n">
-        <v>410.0165012740279</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F10" t="n">
-        <v>238.1547270485883</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G10" t="n">
         <v>71.89775734282044</v>
@@ -4989,25 +4989,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2252.310784755949</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T10" t="n">
-        <v>2008.971436981848</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U10" t="n">
-        <v>1728.786988482153</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V10" t="n">
-        <v>1447.075521090182</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W10" t="n">
-        <v>1172.223117262695</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X10" t="n">
-        <v>929.6592207084997</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y10" t="n">
-        <v>703.3164523982417</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2475.399670743779</v>
+        <v>1440.302059204442</v>
       </c>
       <c r="C11" t="n">
-        <v>2048.498940757079</v>
+        <v>1013.401329217742</v>
       </c>
       <c r="D11" t="n">
-        <v>1625.206319942079</v>
+        <v>902.2137596055143</v>
       </c>
       <c r="E11" t="n">
-        <v>1199.229380089937</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="F11" t="n">
-        <v>774.1051982793369</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G11" t="n">
-        <v>369.7661358687856</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H11" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>71.89775734282043</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
-        <v>71.89775734282043</v>
+        <v>695.6437112106956</v>
       </c>
       <c r="L11" t="n">
-        <v>852.7173878735007</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M11" t="n">
-        <v>1742.452134990903</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N11" t="n">
-        <v>2632.186882108306</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O11" t="n">
-        <v>3477.331532259118</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P11" t="n">
-        <v>3477.331532259118</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q11" t="n">
-        <v>3477.331532259118</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>3594.887867141021</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T11" t="n">
-        <v>3594.887867141021</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U11" t="n">
-        <v>3336.532957737433</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V11" t="n">
-        <v>3336.532957737433</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W11" t="n">
-        <v>3336.532957737433</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X11" t="n">
-        <v>3300.585305080418</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y11" t="n">
-        <v>2895.248035035309</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J12" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K12" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L12" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="M12" t="n">
-        <v>961.6325044602232</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="N12" t="n">
-        <v>1851.367251577626</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="O12" t="n">
-        <v>1880.58538792333</v>
+        <v>968.8256783162039</v>
       </c>
       <c r="P12" t="n">
-        <v>1880.58538792333</v>
+        <v>1685.023395354702</v>
       </c>
       <c r="Q12" t="n">
         <v>1880.58538792333</v>
@@ -5162,10 +5162,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.078879867057</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C13" t="n">
-        <v>983.1063167459732</v>
+        <v>171.042873084227</v>
       </c>
       <c r="D13" t="n">
-        <v>819.7895438727439</v>
+        <v>171.042873084227</v>
       </c>
       <c r="E13" t="n">
-        <v>653.5813380255975</v>
+        <v>171.042873084227</v>
       </c>
       <c r="F13" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G13" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H13" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I13" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
         <v>129.3890855669785</v>
@@ -5226,25 +5226,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2252.310784755949</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T13" t="n">
-        <v>2252.310784755949</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U13" t="n">
-        <v>2252.310784755949</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V13" t="n">
-        <v>2089.003917271063</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W13" t="n">
-        <v>1814.151513443576</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X13" t="n">
-        <v>1571.587616889381</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y13" t="n">
-        <v>1345.244848579123</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1199.229380089937</v>
+        <v>1773.192229807262</v>
       </c>
       <c r="C14" t="n">
-        <v>1199.229380089937</v>
+        <v>1346.291499820562</v>
       </c>
       <c r="D14" t="n">
-        <v>1199.229380089937</v>
+        <v>922.9988790055627</v>
       </c>
       <c r="E14" t="n">
-        <v>1199.229380089937</v>
+        <v>497.0219391534202</v>
       </c>
       <c r="F14" t="n">
-        <v>774.1051982793369</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G14" t="n">
-        <v>369.7661358687856</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H14" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>434.5012161597159</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K14" t="n">
-        <v>1150.009524135215</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.009524135215</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M14" t="n">
-        <v>1923.907602950379</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N14" t="n">
-        <v>1923.907602950379</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="O14" t="n">
-        <v>2769.052253101191</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P14" t="n">
-        <v>3477.331532259118</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q14" t="n">
-        <v>3477.331532259118</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.240092655207</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V14" t="n">
-        <v>2653.750677781457</v>
+        <v>2979.043542863684</v>
       </c>
       <c r="W14" t="n">
-        <v>2257.359328081804</v>
+        <v>2598.377864143902</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.639329249551</v>
+        <v>2598.377864143902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1440.302059204442</v>
+        <v>2193.040594098792</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K15" t="n">
-        <v>71.89775734282043</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L15" t="n">
-        <v>71.89775734282043</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M15" t="n">
-        <v>71.89775734282043</v>
+        <v>662.38268391116</v>
       </c>
       <c r="N15" t="n">
-        <v>961.6325044602232</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O15" t="n">
-        <v>1851.113782471695</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P15" t="n">
         <v>1880.58538792333</v>
@@ -5399,10 +5399,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>295.9768228924842</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C16" t="n">
-        <v>124.0042597714002</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D16" t="n">
-        <v>71.89775734282043</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E16" t="n">
-        <v>71.89775734282043</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F16" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
         <v>129.3890855669785</v>
@@ -5460,28 +5460,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T16" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U16" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.90186029649</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W16" t="n">
-        <v>955.0494564690027</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X16" t="n">
-        <v>712.4855599148078</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y16" t="n">
-        <v>486.1427916045499</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>464.906172222724</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690842</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.5863609803849</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>391.6137978593009</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>391.6137978593009</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>391.6137978593009</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>1125.089101572744</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M20" t="n">
-        <v>2129.375202991802</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478503</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629315</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787243</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5837,13 +5837,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402535</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281451</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408221</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291426</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>4871.796322517326</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4871.796322517326</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4871.796322517326</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>4676.976398979054</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>4434.412502424859</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6074,19 +6074,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1067.07923602298</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>895.1066729018962</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>731.7899000286669</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>565.5816941815204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>393.7199199560808</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1726.151869599499</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1483.587973045304</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1257.245204735046</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6235,28 +6235,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.8188681099</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596601</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747413</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6311,16 +6311,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>105.4776804749704</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>105.4776804749704</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.68756743822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>869.7150043171358</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2235.67712750613</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2235.67712750613</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1953.965660114159</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1700.760201014738</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1458.196304460543</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1231.853536150285</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>4362.434577686963</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291426</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291426</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291426</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2235.67712750613</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2235.67712750613</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2019.640305074347</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1744.78790124686</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409524</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710918</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M33" t="n">
-        <v>4362.434577686963</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291426</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3901.026184387725</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3729.053621266641</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3565.736848393412</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3399.528642546265</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3227.666868320826</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3061.409898615058</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291426</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291426</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4834.951221791731</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4834.951221791731</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>4560.098817964244</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>4317.534921410049</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>4091.192153099791</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1394.531219842001</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.8188681099</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596601</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747413</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7016,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>964.4851292537592</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>964.4851292537592</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O36" t="n">
-        <v>964.4851292537592</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1874.486968420372</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2002.531292319261</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1727.678888491774</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,19 +7162,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7186,25 +7186,25 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7216,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710918</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M39" t="n">
-        <v>4362.434577686963</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291426</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291426</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1661.879739374708</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C41" t="n">
-        <v>1234.979009388008</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D41" t="n">
-        <v>1234.979009388008</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E41" t="n">
-        <v>809.0020695358658</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F41" t="n">
-        <v>809.0020695358658</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6630071253144</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>434.5012161597159</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
         <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>1150.009524135215</v>
+        <v>1540.788361361508</v>
       </c>
       <c r="M41" t="n">
-        <v>1585.378458328098</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="N41" t="n">
-        <v>1585.378458328098</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="O41" t="n">
-        <v>2430.52310847891</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P41" t="n">
         <v>3138.802387636838</v>
       </c>
       <c r="Q41" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>3011.240092655207</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>2653.750677781457</v>
+        <v>3405.491005041249</v>
       </c>
       <c r="W41" t="n">
-        <v>2257.359328081804</v>
+        <v>3009.099655341596</v>
       </c>
       <c r="X41" t="n">
-        <v>2067.217009419818</v>
+        <v>2597.379656509343</v>
       </c>
       <c r="Y41" t="n">
-        <v>1661.879739374708</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J42" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K42" t="n">
-        <v>662.38268391116</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L42" t="n">
-        <v>662.38268391116</v>
+        <v>101.3693627944557</v>
       </c>
       <c r="M42" t="n">
-        <v>662.38268391116</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="N42" t="n">
-        <v>662.38268391116</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O42" t="n">
-        <v>1164.387670884832</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P42" t="n">
         <v>1880.58538792333</v>
@@ -7532,10 +7532,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C43" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D43" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
         <v>129.3890855669785</v>
@@ -7593,28 +7593,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2205.272171443122</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T43" t="n">
-        <v>1961.932823669022</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U43" t="n">
-        <v>1681.748375169326</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V43" t="n">
-        <v>1681.748375169326</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W43" t="n">
-        <v>1681.748375169326</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X43" t="n">
-        <v>1439.184478615131</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y43" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1659.195420337565</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C44" t="n">
-        <v>1232.294690350865</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D44" t="n">
-        <v>809.0020695358658</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E44" t="n">
-        <v>809.0020695358658</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F44" t="n">
-        <v>809.0020695358658</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6630071253144</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>71.89775734282043</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>1677.140812435722</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M44" t="n">
-        <v>1677.140812435722</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N44" t="n">
-        <v>1677.140812435722</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O44" t="n">
-        <v>2522.285462586534</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P44" t="n">
         <v>3138.802387636838</v>
       </c>
       <c r="Q44" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U44" t="n">
-        <v>3011.240092655207</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V44" t="n">
-        <v>2653.750677781457</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W44" t="n">
-        <v>2257.359328081804</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X44" t="n">
-        <v>2064.532690382675</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y44" t="n">
-        <v>1659.195420337565</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J45" t="n">
-        <v>343.5952466224115</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K45" t="n">
-        <v>934.0801731907511</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L45" t="n">
-        <v>1164.387670884832</v>
+        <v>274.6529237674293</v>
       </c>
       <c r="M45" t="n">
-        <v>1164.387670884832</v>
+        <v>274.6529237674293</v>
       </c>
       <c r="N45" t="n">
         <v>1164.387670884832</v>
@@ -7769,10 +7769,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>343.015436205311</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C46" t="n">
-        <v>171.042873084227</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D46" t="n">
-        <v>171.042873084227</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E46" t="n">
-        <v>171.042873084227</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
         <v>129.3890855669785</v>
@@ -7833,25 +7833,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.175737275084</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T46" t="n">
-        <v>1838.836389500983</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U46" t="n">
-        <v>1558.651941001288</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V46" t="n">
-        <v>1276.940473609317</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W46" t="n">
-        <v>1002.08806978183</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X46" t="n">
-        <v>759.5241732276346</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y46" t="n">
-        <v>533.1814049173767</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>937.0340092178784</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>405.4344198656536</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O2" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>753.0089771212694</v>
+        <v>177.2496653157802</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8054,25 +8054,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>45.34421737063447</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O3" t="n">
-        <v>647.5880747053632</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8081,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>482.522667368951</v>
+        <v>547.0672462351855</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>936.1532296846873</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>936.0015896197016</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>398.1526904575372</v>
+        <v>656.0343783945846</v>
       </c>
       <c r="O6" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,10 +8458,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M8" t="n">
-        <v>936.1532296846873</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8473,7 +8473,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>404.1278315708199</v>
+        <v>404.1278315708194</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8537,13 +8537,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>227.574314522856</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>218.8803944444793</v>
       </c>
       <c r="O9" t="n">
         <v>921.6378271075471</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>299.5448988261019</v>
       </c>
       <c r="L11" t="n">
-        <v>827.0187399383605</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M11" t="n">
-        <v>936.1532296846871</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>936.0015896197013</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8777,19 +8777,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>921.8187472975833</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>920.0649949987969</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>52.685158758287</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>220.2844045199162</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M14" t="n">
-        <v>819.1464940258595</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>798.3831775814667</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9017,13 +9017,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>920.0649949987969</v>
+        <v>528.4187726313924</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>51.54013964082409</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>586.4197136125397</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9251,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>705.1634862205219</v>
+        <v>705.1634862205228</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9485,16 +9485,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,22 +9722,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9883,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>304.4845953330639</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,19 +9959,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>25.72212415780718</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>304.4845953330639</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10199,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
@@ -10433,16 +10433,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>98.81486286002512</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10588,13 +10588,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>660.954139937714</v>
+        <v>995.9774475394116</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10682,13 +10682,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>426.1551116948253</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>59.6191348202578</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>397.6042905607436</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10907,19 +10907,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11065,16 +11065,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>433.0381406409993</v>
       </c>
       <c r="M41" t="n">
-        <v>477.1978630942631</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11135,28 +11135,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>44.76252357253604</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>530.2476341400729</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>937.0340092178782</v>
+        <v>478.0786426274547</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
@@ -11314,7 +11314,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>660.3197305479116</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11375,19 +11375,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>255.148922768857</v>
+        <v>227.3182851229254</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>334.9595776497454</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>334.9595776497462</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22716,7 +22716,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>2.326677470263036</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -22725,7 +22725,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>47.1854451728328</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22843,16 +22843,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>254.1147861334868</v>
+        <v>198.8771739300525</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>65.23940003763322</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -22992,7 +22992,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23026,19 +23026,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>298.8730605543569</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>248.3289064098474</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>71.98949189919264</v>
       </c>
       <c r="C10" t="n">
-        <v>68.15019490184636</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -23229,7 +23229,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>308.9840006907443</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>372.0146227134857</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>176.9879283252548</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>15.56841427007225</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.098167740203</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>48.31958288295769</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>79.2321554863222</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>117.2205539080143</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>21.43047528078557</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>65.01789851058589</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>16.93792262753465</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>115.7088052046617</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>166.4116272462382</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>219.3619033685637</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>131.0791068915071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X44" t="n">
-        <v>216.7044275217924</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>71.98949189919267</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>567513.9292571727</v>
+        <v>567513.9292571725</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>567513.9292571727</v>
+        <v>567513.9292571726</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>567513.9292571725</v>
+        <v>567513.9292571726</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>717384.8239588889</v>
+        <v>717384.823958889</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>717384.8239588891</v>
+        <v>717384.823958889</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>717384.8239588891</v>
+        <v>717384.823958889</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>717384.8239588891</v>
+        <v>717384.823958889</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>567513.9292571725</v>
+        <v>567513.9292571726</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>244543.6550785648</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="C2" t="n">
-        <v>244543.6550785648</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="D2" t="n">
         <v>244543.6550785647</v>
       </c>
       <c r="E2" t="n">
-        <v>244543.6550785646</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="F2" t="n">
         <v>244543.6550785647</v>
@@ -26331,28 +26331,28 @@
         <v>309116.721725596</v>
       </c>
       <c r="H2" t="n">
+        <v>309116.7217255959</v>
+      </c>
+      <c r="I2" t="n">
+        <v>309116.7217255959</v>
+      </c>
+      <c r="J2" t="n">
         <v>309116.721725596</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>309116.721725596</v>
       </c>
-      <c r="J2" t="n">
-        <v>309116.7217255961</v>
-      </c>
-      <c r="K2" t="n">
-        <v>309116.7217255961</v>
-      </c>
       <c r="L2" t="n">
-        <v>309116.7217255961</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="M2" t="n">
         <v>309116.7217255959</v>
       </c>
       <c r="N2" t="n">
-        <v>309116.721725596</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="O2" t="n">
-        <v>244543.6550785648</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="P2" t="n">
         <v>244543.6550785647</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>301182.4016749752</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>235145.2102775614</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26447,7 +26447,7 @@
         <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="M4" t="n">
         <v>43748.40045389556</v>
@@ -26478,40 +26478,40 @@
         <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-179493.1547186737</v>
+        <v>-179837.6993201628</v>
       </c>
       <c r="C6" t="n">
-        <v>121689.2469563014</v>
+        <v>121344.7023548124</v>
       </c>
       <c r="D6" t="n">
-        <v>121689.2469563014</v>
+        <v>121344.7023548124</v>
       </c>
       <c r="E6" t="n">
-        <v>155316.8469563013</v>
+        <v>154972.3023548124</v>
       </c>
       <c r="F6" t="n">
-        <v>155316.8469563014</v>
+        <v>154972.3023548124</v>
       </c>
       <c r="G6" t="n">
-        <v>83448.97930165107</v>
+        <v>83397.94863946673</v>
       </c>
       <c r="H6" t="n">
-        <v>187618.2590832708</v>
+        <v>187567.2284210864</v>
       </c>
       <c r="I6" t="n">
-        <v>187618.2590832708</v>
+        <v>187567.2284210863</v>
       </c>
       <c r="J6" t="n">
-        <v>-47526.95119429057</v>
+        <v>-47577.98185647487</v>
       </c>
       <c r="K6" t="n">
-        <v>187618.2590832709</v>
+        <v>187567.2284210864</v>
       </c>
       <c r="L6" t="n">
-        <v>187618.2590832708</v>
+        <v>187567.2284210863</v>
       </c>
       <c r="M6" t="n">
-        <v>187618.2590832706</v>
+        <v>187567.2284210864</v>
       </c>
       <c r="N6" t="n">
-        <v>187618.2590832708</v>
+        <v>187567.2284210863</v>
       </c>
       <c r="O6" t="n">
-        <v>155316.8469563015</v>
+        <v>154972.3023548124</v>
       </c>
       <c r="P6" t="n">
-        <v>155316.8469563014</v>
+        <v>154972.3023548124</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>380.0619507876013</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.0619507876013</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34704,19 +34704,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
-        <v>368.0031569662218</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O2" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>715.433615311038</v>
+        <v>139.6743035055489</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34774,25 +34774,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22.24743685830649</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O3" t="n">
-        <v>624.416184983141</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>446.7580665741417</v>
+        <v>511.3026454403762</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>898.7219667852555</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>376.8096622439955</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="O6" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,10 +35178,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M8" t="n">
-        <v>898.7219667852555</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35193,7 +35193,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>368.0031569662218</v>
+        <v>368.0031569662214</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>197.5373662309377</v>
       </c>
       <c r="O9" t="n">
         <v>898.4659373853249</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>263.7802980312926</v>
       </c>
       <c r="L11" t="n">
-        <v>788.7066975057376</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M11" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>29.51326903606477</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>197.5373662309377</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M14" t="n">
-        <v>781.7152311264277</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>760.9922182254427</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>898.7219667852553</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>29.76929843599542</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>548.1076711799168</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>666.851443787899</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>267.0533324336321</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3.207037443577619</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>267.0533324336321</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>75.71808234769713</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>623.5228770382822</v>
+        <v>958.5461846399799</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37329,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>404.3842704899966</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>36.8720965312793</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>361.4796159561455</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>394.7260982083764</v>
       </c>
       <c r="M41" t="n">
-        <v>439.7666001948313</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>22.24743685830649</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>507.0757444178507</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>898.7219667852553</v>
+        <v>439.7666001948318</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>622.7443687376804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.6338360546274</v>
+        <v>204.8031984086958</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
